--- a/docs/StructureDefinition-SpaceInsurance.xlsx
+++ b/docs/StructureDefinition-SpaceInsurance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T20:45:50-06:00</t>
+    <t>2025-05-21T00:44:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Insurance plan for space travel</t>
+    <t>STUB - Insurance plan for space travel</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-SpaceInsurance.xlsx
+++ b/docs/StructureDefinition-SpaceInsurance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T00:44:32-05:00</t>
+    <t>2025-06-01T17:14:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsurance.xlsx
+++ b/docs/StructureDefinition-SpaceInsurance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T17:14:01-05:00</t>
+    <t>2025-06-01T22:56:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsurance.xlsx
+++ b/docs/StructureDefinition-SpaceInsurance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsurance.xlsx
+++ b/docs/StructureDefinition-SpaceInsurance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -349,7 +349,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -522,7 +522,7 @@
     <t>Used to categorize the product/plan.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/insuranceplan-type</t>
+    <t>http://hl7.org/fhir/ValueSet/insuranceplan-type|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -586,7 +586,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -608,7 +608,7 @@
     <t>InsurancePlan.coverageArea</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -699,7 +699,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
   </si>
   <si>
     <t>./type</t>
@@ -765,7 +765,7 @@
     <t>InsurancePlan.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1444,7 +1444,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.4296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="24.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-SpaceInsurance.xlsx
+++ b/docs/StructureDefinition-SpaceInsurance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsurance.xlsx
+++ b/docs/StructureDefinition-SpaceInsurance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsurance.xlsx
+++ b/docs/StructureDefinition-SpaceInsurance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsurance.xlsx
+++ b/docs/StructureDefinition-SpaceInsurance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsurance.xlsx
+++ b/docs/StructureDefinition-SpaceInsurance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsurance.xlsx
+++ b/docs/StructureDefinition-SpaceInsurance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
